--- a/7martsupermarket/src/main/resources/Testdata.xlsx
+++ b/7martsupermarket/src/main/resources/Testdata.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anuth\git\supermarketMainProject\7martsupermarket\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA645E-0E96-4F6A-A787-373FAE07FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="3525" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="AddUser" sheetId="2" r:id="rId2"/>
-    <sheet name="Subcategory" sheetId="3" r:id="rId3"/>
-    <sheet name="News" sheetId="4" r:id="rId4"/>
-    <sheet name="Category" sheetId="5" r:id="rId5"/>
+    <sheet name="SearchUser" sheetId="6" r:id="rId3"/>
+    <sheet name="Subcategory" sheetId="3" r:id="rId4"/>
+    <sheet name="News" sheetId="4" r:id="rId5"/>
+    <sheet name="Category" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -95,17 +102,23 @@
     <t>Mike123</t>
   </si>
   <si>
-    <t>Anupama</t>
-  </si>
-  <si>
-    <t>Anupama123</t>
+    <t>Anup123</t>
+  </si>
+  <si>
+    <t>Username to search</t>
+  </si>
+  <si>
+    <t>Shefeena</t>
+  </si>
+  <si>
+    <t>Anupa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +186,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +238,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +272,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,16 +483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -485,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -493,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -516,16 +539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -541,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -549,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -557,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -565,37 +588,78 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84413AE2-1531-4463-A260-4683594C2CAF}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -603,7 +667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -611,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -619,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -627,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -641,18 +705,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="115.7109375" customWidth="1"/>
+    <col min="1" max="12" width="115.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="147.75" customHeight="1">
+    <row r="1" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -662,37 +726,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
